--- a/biology/Histoire de la zoologie et de la botanique/Rainer_Zangerl/Rainer_Zangerl.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rainer_Zangerl/Rainer_Zangerl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rainer Zangerl (Winterthour, Suisse, 19 novembre 1912 - 27 décembre 2004) était un paléontologue américain d'origine suisse, spécialiste des requins et des tortues préhistoriques, qui s'est notamment illustré au Field Museum of Natural History de Chicago.
 </t>
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Familles
+          <t>Familles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Caseodontoidea
 Caseodontidae
 Eugeneodontidae
@@ -524,14 +542,7 @@
 Petalodontiformes
 Protacrontidae
 Symmoriiformes
-Genres
-Bobbodus
-Mayomyzon
-Ornithoprion
-Espèces
-Anosteira manchuriana
-Bobbodus schaefferi
-Mayomyzon pieckoensis</t>
+</t>
         </is>
       </c>
     </row>
@@ -556,10 +567,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxons créés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bobbodus
+Mayomyzon
+Ornithoprion</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rainer_Zangerl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rainer_Zangerl</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxons créés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anosteira manchuriana
+Bobbodus schaefferi
+Mayomyzon pieckoensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rainer_Zangerl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rainer_Zangerl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) The Vertebrate Fauna of the Selma Formation of Alabama, en 1953</t>
         </is>
